--- a/casemanage/src/main/webapp/source/excel/社会机构数据采集模板.xlsx
+++ b/casemanage/src/main/webapp/source/excel/社会机构数据采集模板.xlsx
@@ -1,8 +1,218 @@
 
-<file path=theme/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+  </sheets>
+  <calcPr calcId="122211"/>
+</workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <si>
+    <r>
+      <t>商户名称</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>联系电话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(必填)</t>
+    </r>
+  </si>
+  <si>
+    <t>区域名称</t>
+  </si>
+  <si>
+    <t>经度</t>
+  </si>
+  <si>
+    <t>纬度</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>宜宾燃面</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.11</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天府广场一区</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐饮行业</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>天府新谷7号楼一楼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>15284100304</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>杠杠的</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+  </fonts>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+  </fills>
+  <borders count="1">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2007-2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -40,7 +250,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Cambria-Calibri">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -51,7 +261,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -86,7 +296,7 @@
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -112,7 +322,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007-2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -242,8 +452,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:shade val="99000"/>
                 <a:satMod val="350000"/>
-                <a:shade val="99000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -284,6 +494,106 @@
 </a:theme>
 </file>
 
-<file path=theme/theme/themeManager.xml><?xml version="1.0" encoding="utf-8"?>
-<a:themeManager xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" customWidth="1"/>
+    <col min="3" max="4" width="21.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/casemanage/src/main/webapp/source/excel/社会机构数据采集模板.xlsx
+++ b/casemanage/src/main/webapp/source/excel/社会机构数据采集模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <r>
       <t>商户名称</t>
@@ -85,44 +85,12 @@
   <si>
     <t>描述</t>
   </si>
-  <si>
-    <t>宜宾燃面</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.11</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.11</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>天府广场一区</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>餐饮行业</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>天府新谷7号楼一楼</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>15284100304</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>杠杠的</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,12 +118,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -537,30 +499,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" s="4"/>
